--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Texans/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8739ABD11649CD2CBD713037F5EA457771314CC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6A58A7-D10F-470F-9BDD-10C5EAB9635C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -41,16 +35,22 @@
     <t>T.Taylor</t>
   </si>
   <si>
+    <t>D.Mills</t>
+  </si>
+  <si>
     <t>D.Johnson</t>
   </si>
   <si>
-    <t>P.Lindsay</t>
-  </si>
-  <si>
     <t>R.Burkhead</t>
   </si>
   <si>
     <t>S.Phillips</t>
+  </si>
+  <si>
+    <t>R.Freeman</t>
+  </si>
+  <si>
+    <t>J.Samuels</t>
   </si>
   <si>
     <t>B.Cooks</t>
@@ -107,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +171,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,27 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,24 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,16 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -536,19 +490,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -556,95 +510,155 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>21</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -654,42 +668,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>35</v>
@@ -710,70 +724,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
       <c r="D4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -788,76 +802,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -866,211 +880,237 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,9 @@
     <t>B.Cooks</t>
   </si>
   <si>
+    <t>P.Dorsett</t>
+  </si>
+  <si>
     <t>J.Akins</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>C.Moore</t>
+  </si>
+  <si>
+    <t>D.Davis</t>
   </si>
   <si>
     <t>P.Brown</t>
@@ -459,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -550,16 +556,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -650,15 +656,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -669,7 +695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -732,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -784,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -836,22 +862,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -859,13 +885,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -885,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -911,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -937,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -963,22 +989,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>4</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -989,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1015,25 +1041,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1041,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1067,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1096,22 +1122,74 @@
         <v>28</v>
       </c>
       <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -556,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -596,16 +596,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -732,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -758,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -862,16 +862,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -888,10 +888,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -992,10 +992,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>3</v>

--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Texans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_C884B304BB2BDC5040A9D876FAEA4577E1325661" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2C0BDF-8409-4C22-868A-43AA256BAA04}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -32,9 +38,6 @@
     <t>RZATT</t>
   </si>
   <si>
-    <t>T.Taylor</t>
-  </si>
-  <si>
     <t>D.Mills</t>
   </si>
   <si>
@@ -53,68 +56,71 @@
     <t>J.Samuels</t>
   </si>
   <si>
+    <t>T.Smith</t>
+  </si>
+  <si>
+    <t>P.Dorsett</t>
+  </si>
+  <si>
+    <t>J.Akins</t>
+  </si>
+  <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>C.Conley</t>
+  </si>
+  <si>
+    <t>A.Miller</t>
+  </si>
+  <si>
+    <t>D.Amendola</t>
+  </si>
+  <si>
+    <t>A.Roberts</t>
+  </si>
+  <si>
+    <t>N.Collins</t>
+  </si>
+  <si>
+    <t>C.Moore</t>
+  </si>
+  <si>
+    <t>D.Davis</t>
+  </si>
+  <si>
+    <t>P.Brown</t>
+  </si>
+  <si>
+    <t>B.Jordan</t>
+  </si>
+  <si>
+    <t>A.Auclair</t>
+  </si>
+  <si>
     <t>B.Cooks</t>
-  </si>
-  <si>
-    <t>P.Dorsett</t>
-  </si>
-  <si>
-    <t>J.Akins</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>C.Conley</t>
-  </si>
-  <si>
-    <t>A.Miller</t>
-  </si>
-  <si>
-    <t>D.Amendola</t>
-  </si>
-  <si>
-    <t>A.Roberts</t>
-  </si>
-  <si>
-    <t>N.Collins</t>
-  </si>
-  <si>
-    <t>C.Moore</t>
-  </si>
-  <si>
-    <t>D.Davis</t>
-  </si>
-  <si>
-    <t>P.Brown</t>
-  </si>
-  <si>
-    <t>B.Jordan</t>
-  </si>
-  <si>
-    <t>A.Auclair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +183,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +269,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +321,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,19 +548,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,19 +568,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,19 +588,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,19 +608,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,19 +628,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,19 +648,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -619,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -636,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -648,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -656,35 +708,15 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -694,37 +726,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,44 +784,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,226 +836,226 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1030,30 +1064,30 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1062,133 +1096,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Texans/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_C884B304BB2BDC5040A9D876FAEA4577E1325661" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2C0BDF-8409-4C22-868A-43AA256BAA04}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -41,49 +35,52 @@
     <t>D.Mills</t>
   </si>
   <si>
+    <t>R.Burkhead</t>
+  </si>
+  <si>
+    <t>S.Phillips</t>
+  </si>
+  <si>
+    <t>R.Freeman</t>
+  </si>
+  <si>
+    <t>J.Samuels</t>
+  </si>
+  <si>
+    <t>T.Smith</t>
+  </si>
+  <si>
+    <t>C.Conley</t>
+  </si>
+  <si>
+    <t>P.Dorsett</t>
+  </si>
+  <si>
+    <t>J.Akins</t>
+  </si>
+  <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
+  </si>
+  <si>
     <t>D.Johnson</t>
   </si>
   <si>
-    <t>R.Burkhead</t>
-  </si>
-  <si>
-    <t>S.Phillips</t>
-  </si>
-  <si>
-    <t>R.Freeman</t>
-  </si>
-  <si>
-    <t>J.Samuels</t>
-  </si>
-  <si>
-    <t>T.Smith</t>
-  </si>
-  <si>
-    <t>P.Dorsett</t>
-  </si>
-  <si>
-    <t>J.Akins</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>C.Conley</t>
+    <t>B.Cooks</t>
   </si>
   <si>
     <t>A.Miller</t>
@@ -111,16 +108,13 @@
   </si>
   <si>
     <t>A.Auclair</t>
-  </si>
-  <si>
-    <t>B.Cooks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,14 +177,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,27 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,24 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,16 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -548,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -560,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -568,19 +516,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -588,19 +536,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -608,19 +556,19 @@
         <v>8</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -628,19 +576,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -651,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -674,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -700,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -726,16 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,304 +704,304 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>72</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1064,139 +1010,165 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>23</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Texans/Players Data.xlsx
+++ b/Base/Teams/Texans/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>D.Mills</t>
   </si>
   <si>
+    <t>D.Johnson</t>
+  </si>
+  <si>
     <t>R.Burkhead</t>
   </si>
   <si>
@@ -75,9 +78,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>D.Johnson</t>
   </si>
   <si>
     <t>B.Cooks</t>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -516,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -536,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -556,16 +556,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -576,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -596,16 +596,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -656,15 +656,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -686,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -709,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -735,19 +755,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -761,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -787,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -813,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -842,16 +862,16 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -865,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -920,22 +940,22 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -972,16 +992,16 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -998,16 +1018,16 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1047,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1073,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>31</v>
@@ -1154,10 +1174,10 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
